--- a/notification_task_data.xlsx
+++ b/notification_task_data.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278953</t>
+          <t>2025-03-07T23:29:11.943510</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278962</t>
+          <t>2025-03-07T23:29:11.943522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278964</t>
+          <t>2025-03-07T23:29:11.943524</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278965</t>
+          <t>2025-03-07T23:29:11.943525</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278966</t>
+          <t>2025-03-07T23:29:11.943527</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278968</t>
+          <t>2025-03-07T23:29:11.943528</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278969</t>
+          <t>2025-03-07T23:29:11.943529</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278970</t>
+          <t>2025-03-07T23:29:11.943530</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278971</t>
+          <t>2025-03-07T23:29:11.943532</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-22T14:58:30.278973</t>
+          <t>2025-03-07T23:29:11.943533</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
